--- a/biology/Zoologie/Euptychia_rufocincta/Euptychia_rufocincta.xlsx
+++ b/biology/Zoologie/Euptychia_rufocincta/Euptychia_rufocincta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Euptychia rufocincta est une  espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae et du genre Euptychia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia rufocincta a été décrit par Gustav Weymer en 1911[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia rufocincta a été décrit par Gustav Weymer en 1911.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia rufocincta est un papillon au dessus marron, foncé pour le mâle, clair pour la femelle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia rufocincta est un papillon au dessus marron, foncé pour le mâle, clair pour la femelle.
 Le revers est beige rayé de lignes cuivrées avec à l'apex de l'aile antérieure un gros ocelle noir cerclé de jaune et pupillé de bleu et trois ocelles à l'aile postérieure eux aussi noir cerclés de jaune et pupillés de bleu, un très gros  proche de l'angle anal et un petit et un gros proches de l'apex.
 </t>
         </is>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus[2].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Selaginella comme pour les autres Euptychia connus.
 </t>
         </is>
       </c>
@@ -606,13 +627,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euptychia rufocincta est présent au Surinam et en Guyane[1],[2].
-Biotope
-Il réside dans tous les types de forêt[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euptychia rufocincta est présent au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euptychia_rufocincta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_rufocincta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans tous les types de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euptychia_rufocincta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euptychia_rufocincta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 Sur les autres projets Wikimedia :
 Euptychia rufocincta, sur Wikimedia CommonsEuptychia rufocincta, sur Wikispecies
 </t>
